--- a/web/Student/student.xlsx
+++ b/web/Student/student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTBH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06086491-87CA-4C8C-A7EE-9C75CE1CBA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1595CB11-A522-4F45-B946-CE1D07F56A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0CC442C3-E7D7-4432-9CA8-7EEF741F61B9}"/>
   </bookViews>
@@ -58,13 +58,13 @@
     <t>SU2022</t>
   </si>
   <si>
-    <t>SE223344</t>
-  </si>
-  <si>
-    <t>duc01@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>Tran Duc Doan</t>
+    <t>SE12312312</t>
+  </si>
+  <si>
+    <t>tuann@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Phan Anh Tuann</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
